--- a/src/test/java/com/vmetry/datautils/InputController.xlsx
+++ b/src/test/java/com/vmetry/datautils/InputController.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Booking" sheetId="2" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Test Case</t>
   </si>
@@ -78,6 +79,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>To test SignIn</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User123</t>
   </si>
 </sst>
 </file>
@@ -513,7 +526,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,14 +563,22 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -644,4 +665,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8877996655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>